--- a/sample.xlsx
+++ b/sample.xlsx
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>9789814754781</t>
+          <t>9789814403696</t>
         </is>
       </c>
     </row>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>9789814403696</t>
+          <t>9781108678285</t>
         </is>
       </c>
     </row>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>9781108678285</t>
+          <t>9789814754774</t>
         </is>
       </c>
     </row>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>9789814754774</t>
+          <t>9781108678285</t>
         </is>
       </c>
     </row>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -345,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -354,10 +357,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>9781108678285</t>
-        </is>
+      <c r="A1" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>43755.43693540961</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
